--- a/revref_dashboad.xlsx
+++ b/revref_dashboad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38555920-65FF-42C1-BD3E-AF0154C6CF99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F2BE7D-072F-4BDD-8577-6D7DC0D7BDF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6840" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>header1</t>
   </si>
@@ -50,16 +50,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>現在作成中です。
-順次公開いたしますので、公開前のページについては過去のマニュアルを参照してください。
-■過去のマニュアル
-https://support.vle.hiroshima-u.ac.jp/files/public/hirodai-moodle-faculty-document-20230306.pdf</t>
-    <rPh sb="53" eb="55">
-      <t>カコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Moodleサーバの負荷をみたい</t>
@@ -130,6 +120,10 @@
   </si>
   <si>
     <t>ダッシュボード＆マイコース</t>
+  </si>
+  <si>
+    <t>現在作成中です。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -565,9 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082697F7-4C19-4850-B803-71744936E3C0}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -580,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -646,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -662,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -673,10 +665,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -728,7 +720,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -749,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -765,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -778,7 +770,9 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
@@ -847,9 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C59D0E-D294-443B-9256-20DE1AB6D1A5}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -869,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -885,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -899,13 +891,13 @@
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -915,19 +907,19 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -939,13 +931,13 @@
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -986,12 +978,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,27 +1245,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1289,12 +1284,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_dashboad.xlsx
+++ b/revref_dashboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F2BE7D-072F-4BDD-8577-6D7DC0D7BDF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3131647-A191-4C0B-A5D0-282AA1449367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6840" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="-19755" yWindow="2700" windowWidth="18450" windowHeight="11670" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>header1</t>
   </si>
@@ -116,13 +116,71 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ダッシュボード＆マイコース</t>
+  </si>
+  <si>
+    <t>現在作成中です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;最近アクセスされたコース&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>サイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コースカテゴリ&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ダッシュボードの配置を変更したい</t>
-  </si>
-  <si>
-    <t>ダッシュボード＆マイコース</t>
-  </si>
-  <si>
-    <t>現在作成中です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;タイムライン&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;カレンダー&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;マイコース&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ダッシュボード&lt;/h3&gt;
+ダッシュボードはデフォルトで表示されるブロックについて紹介します&lt;br&gt;
+ブロックは配置の変更や追加・削除が可能です&lt;br&gt;
+手順については&lt;a href="p2.html"&gt;ダッシュボードの配置を変更したい&lt;/a&gt;を参照してください</t>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -210,34 +268,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -261,9 +312,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,7 +352,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -407,7 +458,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -549,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,51 +610,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082697F7-4C19-4850-B803-71744936E3C0}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -614,42 +665,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -657,56 +704,77 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -720,39 +788,37 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -760,74 +826,74 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
   </sheetData>
@@ -843,36 +909,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -880,94 +944,94 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
   </sheetData>
@@ -978,21 +1042,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1245,21 +1300,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1284,9 +1345,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_dashboad.xlsx
+++ b/revref_dashboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3131647-A191-4C0B-A5D0-282AA1449367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E723F0D9-328D-4191-ACAC-EA9BF2AD820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19755" yWindow="2700" windowWidth="18450" windowHeight="11670" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="-19320" yWindow="3135" windowWidth="18450" windowHeight="11670" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>&lt;h3&gt;ダッシュボード&lt;/h3&gt;
-ダッシュボードはデフォルトで表示されるブロックについて紹介します&lt;br&gt;
+ダッシュボードにデフォルトで表示されるブロックについて紹介します&lt;br&gt;
 ブロックは配置の変更や追加・削除が可能です&lt;br&gt;
 手順については&lt;a href="p2.html"&gt;ダッシュボードの配置を変更したい&lt;/a&gt;を参照してください</t>
     <rPh sb="31" eb="33">
@@ -667,7 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1042,12 +1044,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1300,27 +1311,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1345,12 +1350,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_dashboad.xlsx
+++ b/revref_dashboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E723F0D9-328D-4191-ACAC-EA9BF2AD820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5790B2-266E-4E83-BDA6-942A7BAB5B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="3135" windowWidth="18450" windowHeight="11670" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12900" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>header1</t>
   </si>
@@ -119,10 +119,6 @@
     <t>ダッシュボード＆マイコース</t>
   </si>
   <si>
-    <t>現在作成中です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;最近アクセスされたコース&lt;/h4&gt;</t>
     <rPh sb="4" eb="6">
       <t>サイキン</t>
@@ -130,10 +126,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;コースカテゴリ&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ダッシュボードの配置を変更したい</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -150,36 +142,722 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;ダッシュボード&lt;/h3&gt;
-ダッシュボードにデフォルトで表示されるブロックについて紹介します&lt;br&gt;
+    <t>&lt;h3&gt;ダッシュボード&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダッシュボードにデフォルトで表示されるブロックについて紹介します&lt;br&gt;
 ブロックは配置の変更や追加・削除が可能です&lt;br&gt;
 手順については&lt;a href="p2.html"&gt;ダッシュボードの配置を変更したい&lt;/a&gt;を参照してください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コースツリー&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースカテゴリー別にログインユーザが参加者となっているコースが表示されます
+コースツリーはデフォルトで隠された状態になっているため、カテゴリをクリックして展開してください
+コース名をクリックすることでコースを開くことができます</t>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サンカシャ</t>
+    </rPh>
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
     </rPh>
+    <rPh sb="51" eb="52">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクションを必要とする活動が表示されます
+デフォルトでは7日以内が期限の活動が日付順で並んでいます
+表示する期限は「次の7日」を並び順は「日付で並び替える」をクリックすると変更することができます
+また、右上の「活動タイプまたは活動名を検索する」からアクションを必要とする活動を検索することができます</t>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>カツドウメイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>期限などを設定しているコースやコース内にアクションなどがある場合、イベントがカレンダーに表示されます
+イベント名をクリックするとコースを表示することができます
+デフォルトではすべてのコースのイベントが表示されます
+カレンダーの下に表示されている「すべてのコース」をクリックすると表示するコースを選ぶことができます
+また、右上の「新しいイベント」から自分で登録することもできます</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
     <rPh sb="44" eb="46">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインユーザが直近でアクセスしたコースが10コース表示されます
+10コース表示されていない場合は、右上に表示されている「＞」をクリックするとスクロールします
+カード（コース名とコースカテゴリが表示されている四角の枠内）をクリックすることでコースを開くことができます</t>
+    <rPh sb="8" eb="10">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ワクナイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodleを開いたときに左上に表示されている「マイコース」をクリックすると、ログインしているユーザが学生や担当教員など関係なく参加者に登録しているすべてのコースがコース名順にカードで表示されます</t>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t>タントウキョウイン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース概要の下に表示されているメニューをクリックすることで、表示内容を変更することができます
+&lt;ul&gt;
+ &lt;li&gt;すべて：開講期間（進行中・未来・過去）などで表示するコースをフィルターすることができます&lt;/li&gt;
+ &lt;li&gt;検索：コース名でログインユーザが参加者に登録されているコースを検索できます&lt;/li&gt;
+ &lt;li&gt;コース名で並び替える：「最終サクセスで並び替える」に変更することができます&lt;/li&gt;
+ &lt;li&gt;カード：表示方法をリストや概要に変更することができます&lt;/li&gt;
+&lt;ul&gt;</t>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カイコウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>シンコウチュウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="128" eb="131">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ダッシュボードの配置を変更&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ブロックドロワ&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上の「＞」にカーソルを合わせると「ブロックドロワを開く」と表示されます。
+この「＞」をクリックすることでブロックドロワを開くことができ、「利用状況」「代理ログイン」「最新バッジ」が表示されます。
+「×」をクリックすることで閉じることができます</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>リヨウジョウキョウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ダイリ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ブロックドロワの変更&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ブロックの移動&lt;/h4&gt;</t>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダッシュボードの配置はユーザ毎にカスタマイズすることができます
+変更するには右上の「編集モード」をONにしてください
+※●が右に寄っている状態がONです</t>
+    <rPh sb="8" eb="10">
       <t>ハイチ</t>
     </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動したいブロックの右上に表示されている十字の矢印にカーソルを合わせると、「（ブロック名）ブロックを移動する」と表示され、カーソルが十字の矢印に変わります
+例えば、タイムラインの場合は「タイムライン　ブロックを移動する」と表示されます
+その状態のまま、ドラッグ＆ドロップで移動したい場所に移動させます
+ブロックドロワを開いた状態にしておくと、ブロックドロワへの移動も可能です</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ブロックの追加&lt;/h4&gt;</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ダッシュボードの初期化&lt;/h3&gt;</t>
+    <rPh sb="12" eb="15">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトの配置に戻したい場合は、右上に表示された「ページをデフォルトにリセットする」をクリックします</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動したいブロックの右上に表示されている十字の矢印にカーソルを合わせると、「（ブロック名）ブロックを移動する」と表示され、カーソルが十字の矢印に変わります
+例えば、タイムラインの場合は「タイムライン　ブロックを移動する」と表示されます
+その状態のまま、ドラッグ＆ドロップで移動したい場所に移動させます
+ダッシュボード上への移動も可能です</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックドロワも表示するブロックを変更することができます
+変更するには右上の「編集モード」をONにして、ブロックドロワを開いてください
+※●が右に寄っている状態がONです</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダッシュボードの下に表示されている「ブロックを追加する」をクリックします
+追加したいブロックをクリックするとダッシュボードの一番下に追加されます</t>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
     <rPh sb="62" eb="64">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックドロワの一番上に表示されている「ブロックを追加する」をクリックします
+追加したいブロックをクリックするとブロックドロワの一番下に追加されます</t>
+    <rPh sb="8" eb="10">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>シタ</t>
+    </rPh>
     <rPh sb="68" eb="70">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ブロックの削除&lt;/h4&gt;</t>
+    <rPh sb="9" eb="11">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="71" eb="73">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>サンショウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除したいブロックの右上に表示されている歯車マーク（アクションメニュー）をクリックします
+「（ブロック名）を削除する」をクリックします
+例えば、タイムラインの場合は「タイムライン　ブロックを削除する」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハグルマ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -312,9 +990,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +1030,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -458,7 +1136,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,7 +1278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,13 +1290,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -634,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -642,18 +1320,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
     </row>
   </sheetData>
@@ -665,24 +1343,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,7 +1366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -698,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -706,77 +1382,114 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
+    <row r="13" spans="1:2" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+    <row r="22" spans="1:2" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="131.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -787,32 +1500,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D5AA7F-EB0F-48FC-9AB1-F6F722AA3B2B}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -820,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -828,75 +1539,153 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -911,18 +1700,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -938,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -946,15 +1735,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -966,7 +1755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="6" t="s">
@@ -976,7 +1765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -988,13 +1777,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -1006,34 +1795,34 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
     </row>
   </sheetData>
@@ -1044,21 +1833,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,21 +2091,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1350,9 +2136,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_dashboad.xlsx
+++ b/revref_dashboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5790B2-266E-4E83-BDA6-942A7BAB5B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE539DC9-B7A4-4560-9D90-C2C01AAADA97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12900" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -312,82 +312,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインユーザが直近でアクセスしたコースが10コース表示されます
-10コース表示されていない場合は、右上に表示されている「＞」をクリックするとスクロールします
-カード（コース名とコースカテゴリが表示されている四角の枠内）をクリックすることでコースを開くことができます</t>
-    <rPh sb="8" eb="10">
-      <t>チョッキン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ワクナイ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>moodleを開いたときに左上に表示されている「マイコース」をクリックすると、ログインしているユーザが学生や担当教員など関係なく参加者に登録しているすべてのコースがコース名順にカードで表示されます</t>
-    <rPh sb="7" eb="8">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒダリウエ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="54" eb="58">
-      <t>タントウキョウイン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コース概要の下に表示されているメニューをクリックすることで、表示内容を変更することができます
 &lt;ul&gt;
  &lt;li&gt;すべて：開講期間（進行中・未来・過去）などで表示するコースをフィルターすることができます&lt;/li&gt;
@@ -490,42 +414,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>右上の「＞」にカーソルを合わせると「ブロックドロワを開く」と表示されます。
-この「＞」をクリックすることでブロックドロワを開くことができ、「利用状況」「代理ログイン」「最新バッジ」が表示されます。
-「×」をクリックすることで閉じることができます</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="70" eb="74">
-      <t>リヨウジョウキョウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ダイリ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;ブロックドロワの変更&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -858,6 +746,118 @@
     </rPh>
     <rPh sb="95" eb="97">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上の「＞」にカーソルを合わせると「ブロックドロワを開く」と表示されます
+この「＞」をクリックすることでブロックドロワを開くことができ、「利用状況」「代理ログイン」「最新バッジ」が表示されます
+「×」をクリックすることで閉じることができます</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="69" eb="73">
+      <t>リヨウジョウキョウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ダイリ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodleを開いたときに左上に表示されている「マイコース」をクリックすると、学生や担当教員など関係なくログインユーザが参加者に登録されているすべてのコースがコース名順にカードで表示されます</t>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>タントウキョウイン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインユーザが直近でアクセスしたコースが10コース表示されます
+10コース表示されていない場合は、右上に表示されている「＞」をクリックするとスクロールします
+コース名とコースカテゴリが表示されている四角の枠内（カード）をクリックすることでコースを開くことができます</t>
+    <rPh sb="8" eb="10">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ワクナイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1415,7 +1415,7 @@
     <row r="11" spans="1:2" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1457,13 +1457,13 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -1479,13 +1479,13 @@
     <row r="22" spans="1:2" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="131.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -1550,54 +1550,54 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1608,49 +1608,49 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -1660,13 +1660,13 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -1833,15 +1833,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2090,6 +2081,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2109,14 +2109,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2135,6 +2127,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
